--- a/GPA Calculator.xlsx
+++ b/GPA Calculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEED248-12F9-4FD4-9F5A-99269B7F57ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ADAD95-B1CE-4638-BFBC-05302864C41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Marks</t>
   </si>
@@ -474,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,94 +538,91 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -916,47 +913,47 @@
   <dimension ref="B4:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="20.7109375" style="19"/>
-    <col min="8" max="8" width="22.7109375" style="19" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="20.7109375" style="19"/>
+    <col min="1" max="7" width="20.7109375" style="10"/>
+    <col min="8" max="8" width="22.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="20.7109375" style="10"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="42" t="s">
         <v>23</v>
       </c>
     </row>
@@ -967,31 +964,33 @@
       <c r="C6" s="13">
         <v>4</v>
       </c>
-      <c r="D6" s="37" t="e">
+      <c r="D6" s="36">
         <f>VLOOKUP(E6,Sheet2!$D$3:$E$12,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="35" t="e">
+        <v>3.75</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="34">
         <f t="shared" ref="F6:F11" si="0">C6*D6</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H6" s="22">
+        <v>15</v>
+      </c>
+      <c r="H6" s="21">
         <v>1</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <f>K6/L6</f>
         <v>2.8571428571428572</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="23">
         <f>K6/L6</f>
         <v>2.8571428571428572</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="35">
         <f>18+6.9+5.1</f>
         <v>30</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="23">
         <f>4.5+3+3</f>
         <v>10.5</v>
       </c>
@@ -1003,31 +1002,33 @@
       <c r="C7" s="13">
         <v>4</v>
       </c>
-      <c r="D7" s="37" t="e">
+      <c r="D7" s="36">
         <f>VLOOKUP(E7,Sheet2!$D$3:$E$12,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="35" t="e">
+        <v>3.5</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H7" s="22">
+        <v>14</v>
+      </c>
+      <c r="H7" s="21">
         <v>2</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <f>K7/L7</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="23">
         <f>SUM(K6:K7) / SUM(L6:L7)</f>
         <v>2.7692307692307692</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="35">
         <f>9+9+6</f>
         <v>24</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="23">
         <f>3+3+3</f>
         <v>9</v>
       </c>
@@ -1039,31 +1040,33 @@
       <c r="C8" s="13">
         <v>4</v>
       </c>
-      <c r="D8" s="37" t="e">
+      <c r="D8" s="36">
         <f>VLOOKUP(E8,Sheet2!$D$3:$E$12,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="35" t="e">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H8" s="22">
+        <v>16</v>
+      </c>
+      <c r="H8" s="21">
         <v>3</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <f>K8/L8</f>
         <v>3.8173913043478258</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="23">
         <f>SUM(K6:K8)/SUM(L6:L8)</f>
         <v>3.1580645161290324</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="35">
         <f>18+16+9.9</f>
         <v>43.9</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="23">
         <f>4.5+4+3</f>
         <v>11.5</v>
       </c>
@@ -1073,31 +1076,33 @@
       <c r="C9" s="13">
         <v>0</v>
       </c>
-      <c r="D9" s="37" t="e">
+      <c r="D9" s="36">
         <f>VLOOKUP(E9,Sheet2!$D$3:$E$12,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
         <v>4</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <f>K9/L9</f>
         <v>3.5535714285714284</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="23">
         <f>SUM(K6:K9)/SUM(L6:L9)</f>
         <v>3.2811111111111111</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="35">
         <f>12+16+10.5+11.25</f>
         <v>49.75</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="23">
         <f>4+4+3+3</f>
         <v>14</v>
       </c>
@@ -1107,31 +1112,33 @@
       <c r="C10" s="13">
         <v>0</v>
       </c>
-      <c r="D10" s="37" t="e">
+      <c r="D10" s="36">
         <f>VLOOKUP(E10,Sheet2!$D$3:$E$12,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H10" s="22">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21">
         <v>5</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <f>K10/L10</f>
         <v>3.7434210526315788</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="23">
         <f>SUM(K6:K10) / SUM(L6:L10)</f>
         <v>3.4183593750000001</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="44">
         <f>18+10.5+16.875+4+11.25+10.5</f>
         <v>71.125</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="23">
         <f>4.5+4.5+1+3+3+3</f>
         <v>19</v>
       </c>
@@ -1141,188 +1148,190 @@
       <c r="C11" s="15">
         <v>0</v>
       </c>
-      <c r="D11" s="37" t="e">
+      <c r="D11" s="36">
         <f>VLOOKUP(E11,Sheet2!$D$3:$E$12,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H11" s="22">
+        <v>0</v>
+      </c>
+      <c r="H11" s="21">
         <v>6</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <f t="shared" ref="I11:I19" si="1">K11/L11</f>
         <v>3.7857142857142856</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="23">
         <f>SUM(K6:K11)/SUM(L6:L11)</f>
         <v>3.4545774647887324</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="35">
         <v>26.5</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="30">
         <f>SUM(C6:C11)</f>
         <v>12</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="34" t="e">
+      <c r="F12" s="33">
         <f>SUM(F6:F11)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="22">
+        <v>45</v>
+      </c>
+      <c r="H12" s="21">
         <v>7</v>
       </c>
-      <c r="I12" s="23" t="e">
+      <c r="I12" s="22">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+      <c r="J12" s="23">
+        <f>SUM(K6:K12) / SUM(L6:L12)</f>
+        <v>3.4972891566265059</v>
+      </c>
+      <c r="K12" s="18">
+        <v>45</v>
+      </c>
+      <c r="L12" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="20">
+        <f>(SUM(F6:F11)/SUM(C6:C11))</f>
+        <v>3.75</v>
+      </c>
+      <c r="H13" s="21">
+        <v>8</v>
+      </c>
+      <c r="I13" s="22" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="24">
-        <f>SUM(K6:K12) / SUM(L6:L12)</f>
-        <v>3.4545774647887324</v>
-      </c>
-      <c r="K12" s="18">
-        <v>0</v>
-      </c>
-      <c r="L12" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="21" t="e">
-        <f>(SUM(F6:F11)/SUM(C6:C11))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H13" s="22">
-        <v>8</v>
-      </c>
-      <c r="I13" s="23" t="e">
+      <c r="J13" s="23">
+        <f>SUM(K6:K13) / SUM(L6:L13)</f>
+        <v>3.4972891566265059</v>
+      </c>
+      <c r="K13" s="35"/>
+      <c r="L13" s="23"/>
+    </row>
+    <row r="14" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="H14" s="21">
+        <v>9</v>
+      </c>
+      <c r="I14" s="22" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="24">
-        <f>SUM(K6:K13) / SUM(L6:L13)</f>
-        <v>3.4545774647887324</v>
-      </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="H14" s="22">
-        <v>9</v>
-      </c>
-      <c r="I14" s="23" t="e">
+      <c r="J14" s="23">
+        <f>SUM(K6:K14)/SUM(L6:L14)</f>
+        <v>3.4972891566265059</v>
+      </c>
+      <c r="K14" s="35"/>
+      <c r="L14" s="23"/>
+    </row>
+    <row r="15" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="21">
+        <v>10</v>
+      </c>
+      <c r="I15" s="22" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="24">
-        <f>SUM(K6:K14)/SUM(L6:L14)</f>
-        <v>3.4545774647887324</v>
-      </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="24"/>
-    </row>
-    <row r="15" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H15" s="22">
-        <v>10</v>
-      </c>
-      <c r="I15" s="23" t="e">
+      <c r="J15" s="23">
+        <f>SUM(K6:K15)/SUM(L6:L15)</f>
+        <v>3.4972891566265059</v>
+      </c>
+      <c r="K15" s="35"/>
+      <c r="L15" s="23"/>
+    </row>
+    <row r="16" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="21">
+        <v>11</v>
+      </c>
+      <c r="I16" s="22" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="24">
-        <f>SUM(K6:K15)/SUM(L6:L15)</f>
-        <v>3.4545774647887324</v>
-      </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="22">
-        <v>11</v>
-      </c>
-      <c r="I16" s="23" t="e">
+      <c r="J16" s="23">
+        <f>SUM(K6:K16) / SUM(L6:L16)</f>
+        <v>3.4972891566265059</v>
+      </c>
+      <c r="K16" s="35"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="8:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="21">
+        <v>12</v>
+      </c>
+      <c r="I17" s="22" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="24">
-        <f>SUM(K6:K16) / SUM(L6:L16)</f>
-        <v>3.4545774647887324</v>
-      </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="24"/>
-    </row>
-    <row r="17" spans="8:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="22">
-        <v>12</v>
-      </c>
-      <c r="I17" s="23" t="e">
+      <c r="J17" s="23">
+        <f>SUM(K6:K17)/SUM(L6:L17)</f>
+        <v>3.4972891566265059</v>
+      </c>
+      <c r="K17" s="35"/>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="18" spans="8:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="21">
+        <v>13</v>
+      </c>
+      <c r="I18" s="22" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="24">
-        <f>SUM(K6:K17)/SUM(L6:L17)</f>
-        <v>3.4545774647887324</v>
-      </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="24"/>
-    </row>
-    <row r="18" spans="8:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="22">
-        <v>13</v>
-      </c>
-      <c r="I18" s="23" t="e">
+      <c r="J18" s="23">
+        <f>SUM(K6:K18)/SUM(L6:L18)</f>
+        <v>3.4972891566265059</v>
+      </c>
+      <c r="K18" s="35"/>
+      <c r="L18" s="23"/>
+    </row>
+    <row r="19" spans="8:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="26">
+        <v>14</v>
+      </c>
+      <c r="I19" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="24">
-        <f>SUM(K6:K18)/SUM(L6:L18)</f>
-        <v>3.4545774647887324</v>
-      </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="24"/>
-    </row>
-    <row r="19" spans="8:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="27">
-        <v>14</v>
-      </c>
-      <c r="I19" s="28" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="29">
+      <c r="J19" s="28">
         <f>SUM(K6:K19) / SUM(L6:L19)</f>
-        <v>3.4545774647887324</v>
-      </c>
-      <c r="K19" s="46"/>
-      <c r="L19" s="29"/>
+        <v>3.4972891566265059</v>
+      </c>
+      <c r="K19" s="45"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" spans="8:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K20" s="47" t="s">
+      <c r="K20" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L20" s="47">
         <f>SUM(L6:L19)</f>
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
